--- a/multiple.xlsx
+++ b/multiple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -281,6 +281,120 @@
   </x:si>
   <x:si>
     <x:t>Product2 name won't be listed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Lead tab,  and click on existing Lead name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Lead selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Lead name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Lead successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Lead tab,  and click on existing Lead to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Lead successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Account tab,  and click on existing Account name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Account selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Account successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Account tab,  and click on existing Account to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Account successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Opportunity tab,  and click on existing Opportunity name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shows fields for Opportunity selected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Opportunity name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of Opportunity successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click Opportunity tab,  and click on existing Opportunity to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show popup to confirm deletion of Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click yes on confirm dialog to Delete the Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deleted the Opportunity successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Lead then Verify Deleted Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click Account tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check if Account name exists</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Account name won't be listed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Lead then Verify Deleted Opportunity</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click Opportunity tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check if Opportunity name exists</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Opportunity name won't be listed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -364,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J29" totalsRowShown="0">
-  <x:autoFilter ref="A1:J29"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J49" totalsRowShown="0">
+  <x:autoFilter ref="A1:J49"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -670,7 +784,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J29"/>
+  <x:dimension ref="A1:J49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -682,8 +796,8 @@
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="57.550625000000004" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="41.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="64.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="44.840625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -1305,6 +1419,426 @@
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:10">
+      <x:c r="A30" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s"/>
+      <x:c r="F30" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:10">
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
+      <x:c r="D31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s"/>
+      <x:c r="F31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:10">
+      <x:c r="A32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s"/>
+      <x:c r="F32" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:10">
+      <x:c r="A33" s="0" t="s"/>
+      <x:c r="B33" s="0" t="s"/>
+      <x:c r="C33" s="0" t="s"/>
+      <x:c r="D33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:10">
+      <x:c r="A34" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s"/>
+      <x:c r="F34" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:10">
+      <x:c r="A35" s="0" t="s"/>
+      <x:c r="B35" s="0" t="s"/>
+      <x:c r="C35" s="0" t="s"/>
+      <x:c r="D35" s="0" t="s"/>
+      <x:c r="E35" s="0" t="s"/>
+      <x:c r="F35" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:10">
+      <x:c r="A36" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s"/>
+      <x:c r="F36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s"/>
+      <x:c r="J36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:10">
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
+      <x:c r="E37" s="0" t="s"/>
+      <x:c r="F37" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:10">
+      <x:c r="A38" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s"/>
+      <x:c r="F38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:10">
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s"/>
+      <x:c r="F39" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s"/>
+      <x:c r="J39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:10">
+      <x:c r="A40" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s"/>
+      <x:c r="F40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s"/>
+      <x:c r="F41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s"/>
+      <x:c r="F42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s"/>
+      <x:c r="F43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s"/>
+      <x:c r="B44" s="0" t="s"/>
+      <x:c r="C44" s="0" t="s"/>
+      <x:c r="D44" s="0" t="s"/>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s"/>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s"/>
+      <x:c r="F45" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s"/>
+      <x:c r="F46" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s"/>
+      <x:c r="F47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s"/>
+      <x:c r="F48" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s"/>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s"/>
+      <x:c r="B49" s="0" t="s"/>
+      <x:c r="C49" s="0" t="s"/>
+      <x:c r="D49" s="0" t="s"/>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
